--- a/medicine/Enfance/Cellule_départementale_de_recueil_de_traitement_et_d'évaluation/Cellule_départementale_de_recueil_de_traitement_et_d'évaluation.xlsx
+++ b/medicine/Enfance/Cellule_départementale_de_recueil_de_traitement_et_d'évaluation/Cellule_départementale_de_recueil_de_traitement_et_d'évaluation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cellule départementale de recueil de traitement et d'évaluation, ou cellule départementale de recueil des informations préoccupantes (CRIP), est un dispositif lié à la protection de l'enfance en France.
 « La mise en œuvre de la loi du 5 mars 2007 réformant la protection de l’enfance implique des modifications importantes,
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Création de cellule départementale de recueil de traitement et d'évaluation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La loi du 5 mars 2007 réformant la protection de l’enfance charge le président du conseil
 général du recueil, du traitement et de l’évaluation des informations préoccupantes concernant
@@ -532,8 +546,43 @@
 départementale créée par la loi. Cette cellule de recueil, de traitement et d’évaluation des
 informations préoccupantes, doit contribuer à clarifier et à fiabiliser les procédures depuis
 la transmission d’une information à la cellule jusqu’à la décision.
-La cellule départementale : un rôle central
-Elle constitue une interface, en premier lieu, avec les services propres au département (protection
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Création de cellule départementale de recueil de traitement et d'évaluation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La cellule départementale : un rôle central</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle constitue une interface, en premier lieu, avec les services propres au département (protection
 maternelle et infantile, action sociale et aide sociale à l’enfance), mais également avec les
 juridictions et principalement le parquet dont elle est l’interlocuteur privilégié. Elle travaille aussi
 avec l’ensemble des professionnels, et notamment ceux de l’Éducation Nationale, des divers
@@ -544,8 +593,43 @@
 particuliers. Ce service informe chaque département des appels reçus concernant des mineurs
 en danger ou susceptibles de l’être en transmettant désormais à la cellule départementale toute
 information préoccupante.
-Les acteurs impliqués dans le fonctionnement de la cellule départementale
-La cellule est opérationnelle. Les missions qui lui sont dévolues impliquent la collaboration
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Création de cellule départementale de recueil de traitement et d'évaluation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les acteurs impliqués dans le fonctionnement de la cellule départementale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cellule est opérationnelle. Les missions qui lui sont dévolues impliquent la collaboration
 de professionnels sociaux et médico-sociaux. Il est indispensable de disposer d’une équipe
 pluridisciplinaire et pluri-institutionnelle permanente ayant des compétences techniques dans
 le domaine social, éducatif et médical.
@@ -560,8 +644,43 @@
 personnels hospitaliers, juristes, etc.
 Pour être opérationnelle, la cellule doit fonctionner sur une plage horaire la plus large possible,
 et prévoir les relais nécessaires pour assurer une permanence en lien avec les institutions.
-De nombreux acteurs participent au dispositif départemental
-Participent au dispositif départemental tous ceux qui contribuent de manière régulière ou
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Création de cellule départementale de recueil de traitement et d'évaluation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>De nombreux acteurs participent au dispositif départemental</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Participent au dispositif départemental tous ceux qui contribuent de manière régulière ou
 ponctuelle au recueil des informations préoccupantes, à leur traitement et à leur évaluation.
 La loi du 5 mars 2007 dispose dans son article 12 :
 « Les services publics, ainsi que les établissements publics et privés susceptibles de connaître des
@@ -582,8 +701,43 @@
 en tant que relais, par exemple avec le Conseil de l’Ordre des médecins, de l’Ordre des avocats,
 etc.
 (4) Un référent départemental peut être désigné, ce peut être un conseiller technique de service social.
-Centralisation
-La centralisation par la cellule départementale
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Création de cellule départementale de recueil de traitement et d'évaluation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Centralisation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La centralisation par la cellule départementale
 de toutes les informations préoccupantes
 concernant les mineurs en danger
 ou en risque de l’être
@@ -598,8 +752,43 @@
 « Sauf intérêt contraire de l’enfant, le père, la mère, tout autre personne exerçant l’autorité
 parentale ou le tuteur sont préalablement informés de cette transmission selon des modalités
 adaptées.» (article L.226-2-1 du code de l’action social et des familles).
-La cellule départementale : lieu unique du recueil
-Il s’agit de faire converger vers un même lieu toutes les informations préoccupantes concernant
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Création de cellule départementale de recueil de traitement et d'évaluation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La cellule départementale : lieu unique du recueil</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s’agit de faire converger vers un même lieu toutes les informations préoccupantes concernant
 des mineurs en danger ou en risque de l’être de manière à éviter la déperdition de ces informations.
 L’objectif étant de fiabiliser le dispositif de recueil.
 L’article L. 226-2-1 du code de l’action sociale et des familles précise que :
@@ -632,15 +821,85 @@
 le parquet lorsque celui-ci a été avisé directement.
 En conclusion, quel que soit le circuit de transmission, la cellule départementale a vocation à être
 destinataire de toutes les informations préoccupantes et des signalements au parquet.
-La cellule départementale conseille les professionnels
-Il est souhaitable que toutes les personnes qui participent au dispositif de protection de l’enfance
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Création de cellule départementale de recueil de traitement et d'évaluation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La cellule départementale conseille les professionnels</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est souhaitable que toutes les personnes qui participent au dispositif de protection de l’enfance
 puissent s’adresser à la cellule départementale pour avis et conseil lorsqu’elles sont dans le
 questionnement et le doute à propos de la situation d’un mineur. À cet égard, il est recommandé
 que chaque cellule départementale se dote d’un numéro d’appel à leur disposition (utilisable
 en cas de besoin par les personnels de l’éducation, de santé, les services de police et de gendarmerie,
 les services municipaux, les associations).
-Les procédures de recueil sont formalisées par protocoles
-La loi du 5 mars 2007 réformant la protection de l’enfance invite les acteurs les plus concernés
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Création de cellule départementale de recueil de traitement et d'évaluation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Les procédures de recueil sont formalisées par protocoles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La loi du 5 mars 2007 réformant la protection de l’enfance invite les acteurs les plus concernés
 à formaliser les procédures de recueil par protocoles :
 « Des protocoles sont établis à cette fin entre le président du conseil général, le représentant de l’État dans le département, les partenaires institutionnels concernés et l’autorité judiciaire en vue de centraliser le recueil des informations préoccupantes sein d’une cellule de recueil, de traitement et d’évaluation de ces informations. »
 Le protocole a pour but d’officialiser les modalités de transmission de toutes les informations
@@ -648,8 +907,43 @@
 acteur, ainsi que les modalités de retour d’informations vers les personnes qui ont transmis des
 informations préoccupantes telles que prévues par la loi et en tenant compte des procédures
 intra-institutionnelles.
-Le rôle de la cellule départementale dans le traitement et l’évaluation des informations préoccupantes
-La cellule départementale est garante du traitement et de l’évaluation des informations
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Création de cellule départementale de recueil de traitement et d'évaluation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Le rôle de la cellule départementale dans le traitement et l’évaluation des informations préoccupantes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cellule départementale est garante du traitement et de l’évaluation des informations
 préoccupantes.
 À ce titre, elle doit veiller à ce que toutes les informations préoccupantes soient prises en compte
 dans un délai le plus court possible. Elles font alors l’objet d’un traitement qui implique un
@@ -667,8 +961,43 @@
 droit des personnes et de l’intérêt de l’enfant, il doit être limité à ce qui est nécessaire et porter
 uniquement sur le fait que les informations préoccupantes ont été prises en compte et traitées
 par la cellule départementale.
-La cellule départementale procède à une analyse de premier niveau
-À réception de toute information préoccupante, la cellule départementale recherche si la situation
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Création de cellule départementale de recueil de traitement et d'évaluation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>La cellule départementale procède à une analyse de premier niveau</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À réception de toute information préoccupante, la cellule départementale recherche si la situation
 du mineur est déjà connue par les services de protection de l’enfance.
 Elle procède, en outre, à une analyse rapide de la situation du mineur afin de déterminer si elle
 exige, au vu des éléments, un signalement sans délai au procureur de la République du fait de son
@@ -681,8 +1010,43 @@
 Cette obligation est faite au président du conseil général mais aussi au procureur de la République. La loi prévoit que les signalements
 transmis directement au procureur de la République doivent faire l’objet d’un retour d’information : « il informe cette personne des suites
 réservées à son signalement, dans les conditions prévues aux articles 40-1 et 40-2 du code de procédure pénale. »
-Le traitement des informations préoccupantes
-Si la situation laisse présager que l’enfant est en danger, au sens de l’article 375 du code civil, mais
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Création de cellule départementale de recueil de traitement et d'évaluation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Le traitement des informations préoccupantes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si la situation laisse présager que l’enfant est en danger, au sens de l’article 375 du code civil, mais
 que les éléments contenus dans l’information préoccupante ne sont pas suffisants pour effectuer
 un signalement, la cellule départementale doit veiller à ce qu’une évaluation soit effectuée par
 les services départementaux ou, le cas échéant, par ou en liaison avec d’autres acteurs de la
@@ -697,16 +1061,86 @@
 Si la situation nécessite un recueil de données complémentaires et une évaluation approfondie
 de la situation du mineur, les services médico-sociaux du département assurent ce travail, ou
 bien le cas échéant, avec les services de l’Éducation Nationale.
-La cellule départementale est informée de l’issue du traitement des informations préoccupantes
-Si la cellule départementale n’assure pas elle-même le traitement et l’évaluation des informations
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Création de cellule départementale de recueil de traitement et d'évaluation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>La cellule départementale est informée de l’issue du traitement des informations préoccupantes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si la cellule départementale n’assure pas elle-même le traitement et l’évaluation des informations
 préoccupantes, elle doit cependant veiller à ce que celles-ci soient traitées dans des délais
 impartis.
 Dans tous les cas, il importe que la cellule départementale soit informée de l’issue du traitement
 des informations préoccupantes quelles qu’elles soient. Il importe également que la cellule
 départementale soit informée de la mise en œuvre des décisions administratives ou judiciaires
 et de leurs échéances.
-La cellule départementale contribue à l’observation
-« Les informations mentionnées au premier alinéa ne peuvent être collectées, conservées et utilisées que pour assurer les missions prévues au 5° de l’article L. 221-1. Elles sont transmisessous forme anonyme à l’observatoire départemental de la protection de l’enfance prévu à l’article L. 226-3-1 et à l’Observatoire national de l’enfance en danger prévu à l’article L. 226.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Création de cellule départementale de recueil de traitement et d'évaluation</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>La cellule départementale contribue à l’observation</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Les informations mentionnées au premier alinéa ne peuvent être collectées, conservées et utilisées que pour assurer les missions prévues au 5° de l’article L. 221-1. Elles sont transmisessous forme anonyme à l’observatoire départemental de la protection de l’enfance prévu à l’article L. 226-3-1 et à l’Observatoire national de l’enfance en danger prévu à l’article L. 226.
 La nature et les modalités de transmission de ces informations sont fixées par décret. 
 Afin de suivre l’évolution de l’enfance en danger dans le département et permettre d’ajuster en
 conséquence la politique locale de protection de l’enfance, la cellule départementale transmet
@@ -716,31 +1150,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Le secret professionnel et le partage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant la loi réformant la protection de l’enfance, aucun partage n’était possible en droit entre
 les professionnels soumis au secret professionnel de différents services participant aux missions
@@ -750,8 +1186,43 @@
 associant le plus souvent des professionnels extérieurs. Mais ces pratiques, tolérées par l’autorité
 judiciaire, étaient à la merci d’actions pénales intentées par les parents pour non-respect
 du secret professionnel.
-Une nouvelle possibilité
-La loi du 5 mars 2007 réformant la protection de l’enfance aménage le secret professionnel pour
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Le secret professionnel et le partage</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Une nouvelle possibilité</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La loi du 5 mars 2007 réformant la protection de l’enfance aménage le secret professionnel pour
 permettre à ces professionnels d’échanger entre eux les informations nécessaires à l’évaluation
 d’une situation, et à la mise en œuvre des actions de protection. 
 La loi introduit, à cet effet, un nouvel article dans le code de l’action sociale et des familles, l’article L. 226-2-2 qui contient
@@ -766,8 +1237,43 @@
 exerçant l’autorité parentale, le tuteur, l’enfant en fonction de son âge et de sa maturité sont
 préalablement informés, selon des modalités adaptées, sauf si cette information est contraire
 à l’intérêt de l’enfant. » (*) « La révélation d’une information à caractère secret par une personne qui en est dépositaire soit par état ou par profession, soit en raison d’une fonction ou d’une mission temporaire, est punie d’un an d’emprisonnement et de 13 000 euros d’amende. ».
-Le secret et son cadre
-Tous les professionnels qui apportent leur concours à la protection de l’enfance ne
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Le secret professionnel et le partage</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Le secret et son cadre</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les professionnels qui apportent leur concours à la protection de l’enfance ne
 sont pas astreints au secret professionnel. On distingue en réalité deux catégories de
 personnels soumis au secret :
 • les personnels soumis au secret professionnel du fait de leur profession ou d’une mission qui leur est confiée. Ils sont définis par la loi (c’est le cas par exemple des assistants sociaux et des élèves assistants en stage) ou par la jurisprudence, lorsqu’elle les désigne en qualité de « confidents nécessaires », dans l’exercice d’une mission qui leur a été confiée en raison de leur fonction professionnelle (c’est le cas des éducateurs, directeurs d’établissement ou encore des psychologues) ;
@@ -781,8 +1287,43 @@
 en vigueur, notamment en matière de liberté d’accès aux documents administratifs,
 les fonctionnaires ne peuvent être déliés de cette obligation de discrétion professionnelle
 que par décision expresse de l’autorité dont ils dépendent. »
-Le partage d'informations
-« L’intérêt de l’enfant, la prise en compte de ses besoins fondamentaux, physiques, intellectuels, sociaux et affectifs ainsi que le respect de ses droits doivent guider toutes décisions le concernant. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Cellule_départementale_de_recueil_de_traitement_et_d'évaluation</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cellule_d%C3%A9partementale_de_recueil_de_traitement_et_d%27%C3%A9valuation</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Le secret professionnel et le partage</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Le partage d'informations</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« L’intérêt de l’enfant, la prise en compte de ses besoins fondamentaux, physiques, intellectuels, sociaux et affectifs ainsi que le respect de ses droits doivent guider toutes décisions le concernant. »
 L’objectif du partage est donc de connaître, de la manière la plus exhaustive possible, la situation
 de l’enfant et, si nécessaire, de décider des interventions qui assurent la protection de l’enfant.
 Quelles limites au partage ?
